--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B509410-1748-4D55-BBE6-10A6684259E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42907FA3-93F0-4E7C-8E56-D52F89D42379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2436,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42907FA3-93F0-4E7C-8E56-D52F89D42379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D8D3B-460D-486C-99FA-25DADCAD8D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1005,6 +1005,9 @@
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
         <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -2436,8 +2439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384D8D3B-460D-486C-99FA-25DADCAD8D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C1ABBD-1F72-413F-A24A-4207916EC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -526,6 +526,21 @@
   </si>
   <si>
     <t>SelectStatusOptionOnVis</t>
+  </si>
+  <si>
+    <t>C:\Box\External\KETKI\Vanguard\VG_Invoices</t>
+  </si>
+  <si>
+    <t>FlatFileFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Box\External\KETKI\Vanguard\FlatFileWithItemDetails</t>
+  </si>
+  <si>
+    <t>InvoiceFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Box\External\KETKI\Vanguard\VG_Invoices\</t>
   </si>
 </sst>
 </file>
@@ -905,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1010"/>
+  <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -988,125 +1003,125 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s">
         <v>145</v>
@@ -1114,49 +1129,52 @@
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
+      <c r="A29" t="s">
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>147</v>
+      <c r="A31" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -1164,23 +1182,23 @@
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
@@ -1188,71 +1206,71 @@
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>163</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A43" t="s">
-        <v>95</v>
       </c>
       <c r="B43" t="s">
         <v>92</v>
@@ -1260,23 +1278,23 @@
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
         <v>103</v>
@@ -1284,23 +1302,23 @@
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
         <v>108</v>
@@ -1308,23 +1326,23 @@
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
         <v>113</v>
@@ -1332,23 +1350,23 @@
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
         <v>117</v>
@@ -1356,39 +1374,39 @@
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
         <v>127</v>
@@ -1396,23 +1414,23 @@
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
         <v>132</v>
@@ -1420,47 +1438,47 @@
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
         <v>159</v>
@@ -1468,30 +1486,44 @@
     </row>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" customHeight="1">
       <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A74" t="s">
         <v>166</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="75" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="76" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="77" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2428,6 +2460,8 @@
     <row r="1008" ht="14.25" customHeight="1"/>
     <row r="1009" ht="14.25" customHeight="1"/>
     <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2439,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C1ABBD-1F72-413F-A24A-4207916EC192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85835146-82AB-417D-A8CB-71CCE26013E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -541,6 +541,21 @@
   </si>
   <si>
     <t>C:\Box\External\KETKI\Vanguard\VG_Invoices\</t>
+  </si>
+  <si>
+    <t>VISCaptchErrorSubject</t>
+  </si>
+  <si>
+    <t>VISCaptchErrorBody</t>
+  </si>
+  <si>
+    <t>VISCaptchaErrorException</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Image Captcha exists on portal</t>
+  </si>
+  <si>
+    <t>Image captcha exists on the VIS portal</t>
   </si>
 </sst>
 </file>
@@ -920,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1294,239 +1309,260 @@
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A77" t="s">
         <v>166</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="77" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2462,6 +2498,9 @@
     <row r="1010" ht="14.25" customHeight="1"/>
     <row r="1011" ht="14.25" customHeight="1"/>
     <row r="1012" ht="14.25" customHeight="1"/>
+    <row r="1013" ht="14.25" customHeight="1"/>
+    <row r="1014" ht="14.25" customHeight="1"/>
+    <row r="1015" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85835146-82AB-417D-A8CB-71CCE26013E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141D911A-91F0-4EBC-AE3F-1FBED6E5C409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141D911A-91F0-4EBC-AE3F-1FBED6E5C409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC4B36-F2B7-49DD-B0E5-1C5D816513A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -159,135 +172,18 @@
     <t>ProcessABCQueue</t>
   </si>
   <si>
-    <t>VIS eSupply OTP Verification</t>
-  </si>
-  <si>
     <t>OtpFilterEmailSubject</t>
   </si>
   <si>
     <t>Vanguard_AccountReceivable</t>
   </si>
   <si>
-    <t>Inbox</t>
-  </si>
-  <si>
     <t>OutlookFolderNameForInvoice</t>
   </si>
   <si>
-    <t>OutlookEmailFilterForInvoice</t>
-  </si>
-  <si>
-    <t>OutlookAccountName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanguard : Outlook : Invoice email not found for </t>
-  </si>
-  <si>
-    <t>InvoiceEmailNotFoundSubject</t>
-  </si>
-  <si>
-    <t>InvoiceEmailNotFoundBody</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email not found for the Invoice Number: </t>
-  </si>
-  <si>
-    <t>InvoiceEmailNotFoundException</t>
-  </si>
-  <si>
-    <t>AttachmentFolderPath</t>
-  </si>
-  <si>
-    <t>AttachmentEmailFilter</t>
-  </si>
-  <si>
-    <t>AttachmentNotFoundSubject</t>
-  </si>
-  <si>
-    <t>AttachmentNotFoundBody</t>
-  </si>
-  <si>
-    <t>Vangaurd : Outlook : Attachment not found for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment not found for the Invoice Number: </t>
-  </si>
-  <si>
-    <t>AttachmentNotFoundException</t>
-  </si>
-  <si>
-    <t>Vanguard : Outlook : Invoice email not found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vangaurd : Outlook : Attachment not found </t>
-  </si>
-  <si>
-    <t>OutlookAccountNameForException</t>
-  </si>
-  <si>
-    <t>OutlookSentOnBehalfOnEmailName</t>
-  </si>
-  <si>
-    <t>ExceptionRecipientsName</t>
-  </si>
-  <si>
-    <t>ExceptionCcName</t>
-  </si>
-  <si>
-    <t>StatusReportFilePath</t>
-  </si>
-  <si>
-    <t>StatusReportEmailSubject</t>
-  </si>
-  <si>
-    <t>StatusReportEmailBody</t>
-  </si>
-  <si>
-    <t>Vangaurd : Process execution ended</t>
-  </si>
-  <si>
-    <t>Vanguard : Process execution ended. Please find attached status report.</t>
-  </si>
-  <si>
-    <t>SharedDriveFolderPath</t>
-  </si>
-  <si>
-    <t>SharedDriveNotAccessibleSubject</t>
-  </si>
-  <si>
-    <t>SharedDriveNotAccessibleBody</t>
-  </si>
-  <si>
-    <t>Vangaurd : Shared Drive : Shared drive is not accessible</t>
-  </si>
-  <si>
-    <t>Shared drive is not accessible</t>
-  </si>
-  <si>
-    <t>SharedFolderCreationFlag</t>
-  </si>
-  <si>
-    <t>If it sets to TRUE then only it creates required folder. If FALSE then it does not creates folder</t>
-  </si>
-  <si>
-    <t>TSIPortalUrl</t>
-  </si>
-  <si>
-    <t>http://tsiiserp8909.asia.tel.com/apps_live/trp/prod_list/prod_list.php</t>
-  </si>
-  <si>
-    <t>https://esupply.vis.com.tw/esupply/login.do?method=list</t>
-  </si>
-  <si>
     <t>VISPortalUrl</t>
   </si>
   <si>
-    <t>TSI portal sign in page not available</t>
-  </si>
-  <si>
-    <t>Vanguard: TSI: Sign in page not available</t>
-  </si>
-  <si>
     <t>DelayBefore</t>
   </si>
   <si>
@@ -300,262 +196,43 @@
     <t>TimeoutShort</t>
   </si>
   <si>
-    <t>TSI portal is not available</t>
-  </si>
-  <si>
-    <t>Vanguard: TSI: TSI portal is not available</t>
-  </si>
-  <si>
-    <t>TSIPortalNotAvailableSubject</t>
-  </si>
-  <si>
-    <t>TSIPortalNotAvailableBody</t>
-  </si>
-  <si>
-    <t>TSIPortalNotAvailableException</t>
-  </si>
-  <si>
-    <t>VIS Portal sign in page not available</t>
-  </si>
-  <si>
-    <t>VISSignPageExceptionSubject</t>
-  </si>
-  <si>
-    <t>VISSignPageExceptionBody</t>
-  </si>
-  <si>
-    <t>TSISignInPageExceptionSubject</t>
-  </si>
-  <si>
-    <t>TSISignInPageExceptionBody</t>
-  </si>
-  <si>
-    <t>TSISignInPageException</t>
-  </si>
-  <si>
-    <t>VISSignPageException</t>
-  </si>
-  <si>
-    <t>Vanguard: VIS : Sign in page not available</t>
-  </si>
-  <si>
-    <t>VIS Portal OTP verification panel not available</t>
-  </si>
-  <si>
-    <t>VISOtpPanelNotAvailableSubject</t>
-  </si>
-  <si>
-    <t>VISOtpPanelNotAvailableBody</t>
-  </si>
-  <si>
-    <t>VISOtpPanelNotAvailableException</t>
-  </si>
-  <si>
-    <t>Vanguarad: VIS: OTP verification panel not available</t>
-  </si>
-  <si>
-    <t>VISPortalHomePageNotAvailableSubject</t>
-  </si>
-  <si>
-    <t>VISPortalHomePageNotAvailableBody</t>
-  </si>
-  <si>
-    <t>VISPortalHomePageNotAvailableException</t>
-  </si>
-  <si>
-    <t>VIS Portal home page not avilable</t>
-  </si>
-  <si>
-    <t>Vanguard: VIS : Home page not available</t>
-  </si>
-  <si>
-    <t>OtpVerificationFailedSubject</t>
-  </si>
-  <si>
-    <t>OtpVerificationFailedBody</t>
-  </si>
-  <si>
-    <t>OtpVerificationFailedException</t>
-  </si>
-  <si>
-    <t>Vanguard: VIS : OTP Verification failed</t>
-  </si>
-  <si>
-    <t>OTP verification failed for VIS portal</t>
-  </si>
-  <si>
-    <t>Your OTP for VIS eSupply is</t>
-  </si>
-  <si>
-    <t>OtpSplitStringValue</t>
-  </si>
-  <si>
-    <t>(?&lt;=:*).[0-9]+</t>
-  </si>
-  <si>
     <t>RegexForOtp</t>
   </si>
   <si>
-    <t>OtpNotFoundSubject</t>
-  </si>
-  <si>
-    <t>OtpNotFoundBody</t>
-  </si>
-  <si>
-    <t>OtpNotFoundException</t>
-  </si>
-  <si>
-    <t>OTP not found in email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanguard: VIS : OTP not found </t>
-  </si>
-  <si>
-    <t>VIS portal: Invoice details report page not available</t>
-  </si>
-  <si>
-    <t>VISInvoiceDetailsPageNotAvailableSubject</t>
-  </si>
-  <si>
-    <t>VISInvoiceDetailsPageNotAvailableBody</t>
-  </si>
-  <si>
-    <t>VISInvoiceDetailsPageNotAvailableException</t>
-  </si>
-  <si>
-    <t>Vanguard: VIS : Invoice details page not available</t>
-  </si>
-  <si>
-    <t>File is not downloaded from portal</t>
-  </si>
-  <si>
-    <t>FileNotDownloadedSubject</t>
-  </si>
-  <si>
-    <t>FileNotDownloadedBody</t>
-  </si>
-  <si>
-    <t>FileNotDownloadedException</t>
-  </si>
-  <si>
-    <t>Vanguard: TSI : File is not downloaded from TSI portal</t>
-  </si>
-  <si>
-    <t>Vanguard: TSI : File is not downloaded</t>
-  </si>
-  <si>
     <t>NumberOfRetries</t>
   </si>
   <si>
-    <t>RetryInterval</t>
-  </si>
-  <si>
-    <t>00:00:03</t>
-  </si>
-  <si>
-    <t>Config_VIS_Manual_Login</t>
-  </si>
-  <si>
     <t>OutlookFolderNameForOtp</t>
   </si>
   <si>
-    <t>OtpMailNotFoundException</t>
-  </si>
-  <si>
-    <t>Vanguard : Outlook : OTP Email not found</t>
-  </si>
-  <si>
-    <t>OTP email not found for VIS portal</t>
-  </si>
-  <si>
-    <t>SharedDriveNotAccessibleException</t>
-  </si>
-  <si>
-    <t>SharedFolderNotAvailableSubject</t>
-  </si>
-  <si>
-    <t>SharedFolderNotAvailableBody</t>
-  </si>
-  <si>
-    <t>SharedFolderNotAvailableException</t>
-  </si>
-  <si>
-    <t>Vangaurd : Shared Drive : Shared folder is not available</t>
-  </si>
-  <si>
-    <t>Shared folder is not available</t>
-  </si>
-  <si>
-    <t>GlFromDateValue</t>
-  </si>
-  <si>
-    <t>GlToDateValue</t>
-  </si>
-  <si>
-    <t>FilNotAvailableSubject</t>
-  </si>
-  <si>
-    <t>FilNotAvailableBody</t>
-  </si>
-  <si>
-    <t>FilNotAvailableException</t>
-  </si>
-  <si>
-    <t>File is not available</t>
-  </si>
-  <si>
-    <t>Vanguard: TSI : File is not available</t>
-  </si>
-  <si>
-    <t>Config_VIS_Continue</t>
-  </si>
-  <si>
-    <t>TSI_File_Ready</t>
-  </si>
-  <si>
-    <t>Config_TSI_Rerun</t>
-  </si>
-  <si>
     <t>VISPaymentVoucherPage</t>
   </si>
   <si>
-    <t>https://esupply.vis.com.tw/esupply/pvrList.do</t>
-  </si>
-  <si>
-    <t>Vendor Editing</t>
-  </si>
-  <si>
     <t>SelectStatusOptionOnVis</t>
   </si>
   <si>
-    <t>C:\Box\External\KETKI\Vanguard\VG_Invoices</t>
-  </si>
-  <si>
     <t>FlatFileFolderPath</t>
   </si>
   <si>
-    <t>C:\Box\External\KETKI\Vanguard\FlatFileWithItemDetails</t>
-  </si>
-  <si>
-    <t>InvoiceFolderPath</t>
-  </si>
-  <si>
-    <t>C:\Box\External\KETKI\Vanguard\VG_Invoices\</t>
-  </si>
-  <si>
-    <t>VISCaptchErrorSubject</t>
-  </si>
-  <si>
-    <t>VISCaptchErrorBody</t>
-  </si>
-  <si>
-    <t>VISCaptchaErrorException</t>
-  </si>
-  <si>
-    <t>Vanguard: VIS : Image Captcha exists on portal</t>
-  </si>
-  <si>
-    <t>Image captcha exists on the VIS portal</t>
+    <t>VisCredentials</t>
+  </si>
+  <si>
+    <t>VG_VisCredentials</t>
+  </si>
+  <si>
+    <t>VG_OtpFilterEmailSubject</t>
+  </si>
+  <si>
+    <t>VG_FlatFileFolderPath</t>
+  </si>
+  <si>
+    <t>VG_FlatFileFolder</t>
+  </si>
+  <si>
+    <t>VG_OutlookFolderNameForOtp</t>
+  </si>
+  <si>
+    <t>VG_OutlookFolderNameForInvoice</t>
   </si>
 </sst>
 </file>
@@ -607,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -616,10 +293,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1015"/>
+  <dimension ref="A1:Z943"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1009,563 +682,94 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" t="s">
-        <v>169</v>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A67" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A69" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A72" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A73" t="s">
-        <v>156</v>
-      </c>
-      <c r="B73" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A74" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A76" t="s">
-        <v>154</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A77" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -2429,78 +1633,6 @@
     <row r="941" ht="14.25" customHeight="1"/>
     <row r="942" ht="14.25" customHeight="1"/>
     <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-    <row r="1001" ht="14.25" customHeight="1"/>
-    <row r="1002" ht="14.25" customHeight="1"/>
-    <row r="1003" ht="14.25" customHeight="1"/>
-    <row r="1004" ht="14.25" customHeight="1"/>
-    <row r="1005" ht="14.25" customHeight="1"/>
-    <row r="1006" ht="14.25" customHeight="1"/>
-    <row r="1007" ht="14.25" customHeight="1"/>
-    <row r="1008" ht="14.25" customHeight="1"/>
-    <row r="1009" ht="14.25" customHeight="1"/>
-    <row r="1010" ht="14.25" customHeight="1"/>
-    <row r="1011" ht="14.25" customHeight="1"/>
-    <row r="1012" ht="14.25" customHeight="1"/>
-    <row r="1013" ht="14.25" customHeight="1"/>
-    <row r="1014" ht="14.25" customHeight="1"/>
-    <row r="1015" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2510,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2694,85 +1826,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3725,17 +2789,6 @@
     <row r="978" ht="14.25" customHeight="1"/>
     <row r="979" ht="14.25" customHeight="1"/>
     <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3744,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3794,20 +2847,127 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"VG_"&amp;A2</f>
+        <v>VG_VISPortalUrl</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"VG_"&amp;A3</f>
+        <v>VG_VISPaymentVoucherPage</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"VG_"&amp;A4</f>
+        <v>VG_RegexForOtp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B11" si="0">"VG_"&amp;A5</f>
+        <v>VG_SelectStatusOptionOnVis</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>VG_DelayBefore</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>VG_DelayAfter</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>VG_TimeoutMedium</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>VG_TimeoutShort</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>VG_NumberOfRetries</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
@@ -4788,11 +3948,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC4B36-F2B7-49DD-B0E5-1C5D816513A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96769938-D574-4125-BB9E-0F73D497A92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -233,6 +233,57 @@
   </si>
   <si>
     <t>VG_OutlookFolderNameForInvoice</t>
+  </si>
+  <si>
+    <t>VG_UploadFlatFilePath</t>
+  </si>
+  <si>
+    <t>UploadFlatFilePath</t>
+  </si>
+  <si>
+    <t>StatusColumnName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CommentsColumnName</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>BotRunDateColumnName</t>
+  </si>
+  <si>
+    <t>BotRunDateTime</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>StatusForSuccessful</t>
+  </si>
+  <si>
+    <t>CommentForSuccessful</t>
+  </si>
+  <si>
+    <t>Transaction processed successfully</t>
+  </si>
+  <si>
+    <t>BotRunDateFormat</t>
+  </si>
+  <si>
+    <t>StatusForBusinessException</t>
+  </si>
+  <si>
+    <t>BusinessException</t>
+  </si>
+  <si>
+    <t>StatusForSystemException</t>
+  </si>
+  <si>
+    <t>SystemException</t>
   </si>
 </sst>
 </file>
@@ -610,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z943"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -696,14 +747,67 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -2799,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2879,7 +2983,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B11" si="0">"VG_"&amp;A5</f>
+        <f t="shared" ref="B5:B10" si="0">"VG_"&amp;A5</f>
         <v>VG_SelectStatusOptionOnVis</v>
       </c>
     </row>
@@ -2968,7 +3072,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96769938-D574-4125-BB9E-0F73D497A92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22B2CAB-F4BF-42FE-B743-C541A8B4DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -284,6 +284,87 @@
   </si>
   <si>
     <t>SystemException</t>
+  </si>
+  <si>
+    <t>VISSignPageExceptionSubject</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Sign in page not available</t>
+  </si>
+  <si>
+    <t>VISSignPageExceptionBody</t>
+  </si>
+  <si>
+    <t>VIS Portal sign in page not available</t>
+  </si>
+  <si>
+    <t>VISSignPageException</t>
+  </si>
+  <si>
+    <t>ExceptionCcName</t>
+  </si>
+  <si>
+    <t>OutlookSentOnBehalfOnEmailName</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Image Captcha found</t>
+  </si>
+  <si>
+    <t>ImageCaptchaFoundSubject</t>
+  </si>
+  <si>
+    <t>ImageCaptchaFoundBody</t>
+  </si>
+  <si>
+    <t>ImageCaptchaFoundException</t>
+  </si>
+  <si>
+    <t>Image captcha found on the VIS portal</t>
+  </si>
+  <si>
+    <t>UploadFileNotAvailableSubject</t>
+  </si>
+  <si>
+    <t>UploadFileNotAvailableBody</t>
+  </si>
+  <si>
+    <t>UploadFileNotAvailableException</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Flat File Without item details not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat file without item details not available </t>
+  </si>
+  <si>
+    <t>UploadFileErrorSubject</t>
+  </si>
+  <si>
+    <t>UploadFileErrorBody</t>
+  </si>
+  <si>
+    <t>UploadFileErrorException</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Unable to upload flat file on portal</t>
+  </si>
+  <si>
+    <t>Unable to upload flat file on the portal</t>
+  </si>
+  <si>
+    <t>RecordsDoNotMatchSubject</t>
+  </si>
+  <si>
+    <t>RecordsDoNotMatchBody</t>
+  </si>
+  <si>
+    <t>RecordsDoNotMatchException</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Records in Excel and Portal do not match</t>
+  </si>
+  <si>
+    <t>Records in Excel and Portal do not match</t>
   </si>
 </sst>
 </file>
@@ -335,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -345,6 +426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z943"/>
+  <dimension ref="A1:Z945"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -808,24 +890,139 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1737,6 +1934,8 @@
     <row r="941" ht="14.25" customHeight="1"/>
     <row r="942" ht="14.25" customHeight="1"/>
     <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1748,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22B2CAB-F4BF-42FE-B743-C541A8B4DD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9AA62-8306-4CE7-954E-A1C1FCFA47B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -226,9 +226,6 @@
     <t>VG_FlatFileFolderPath</t>
   </si>
   <si>
-    <t>VG_FlatFileFolder</t>
-  </si>
-  <si>
     <t>VG_OutlookFolderNameForOtp</t>
   </si>
   <si>
@@ -365,6 +362,81 @@
   </si>
   <si>
     <t>Records in Excel and Portal do not match</t>
+  </si>
+  <si>
+    <t>InvoiceEmailNotFoundSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanguard : Outlook : Invoice email not found for </t>
+  </si>
+  <si>
+    <t>InvoiceEmailNotFoundBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email not found for the Invoice Number: </t>
+  </si>
+  <si>
+    <t>InvoiceEmailNotFoundException</t>
+  </si>
+  <si>
+    <t>Vanguard : Outlook : Invoice email not found</t>
+  </si>
+  <si>
+    <t>ExceptionToList</t>
+  </si>
+  <si>
+    <t>FilterForPdfAttachment</t>
+  </si>
+  <si>
+    <t>InvoiceFolderPath</t>
+  </si>
+  <si>
+    <t>VG_InvoiceFolderPath</t>
+  </si>
+  <si>
+    <t>TimeSpan</t>
+  </si>
+  <si>
+    <t>VG_OutlookSentOnBehalfOnEmailName</t>
+  </si>
+  <si>
+    <t>VG_ExceptionCcName</t>
+  </si>
+  <si>
+    <t>VG_ExceptionToList</t>
+  </si>
+  <si>
+    <t>Vendor Editing</t>
+  </si>
+  <si>
+    <t>VISOtpPanelNotAvailableException</t>
+  </si>
+  <si>
+    <t>Vanguarad: VIS: OTP verification panel not available</t>
+  </si>
+  <si>
+    <t>VISPortalHomePageNotAvailableException</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Home page not available</t>
+  </si>
+  <si>
+    <t>AttachmentNotFoundSubject</t>
+  </si>
+  <si>
+    <t>Vangaurd : Outlook : Attachment not found for</t>
+  </si>
+  <si>
+    <t>AttachmentNotFoundBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment not found for the Invoice Number: </t>
+  </si>
+  <si>
+    <t>AttachmentNotFoundException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vangaurd : Outlook : Attachment not found </t>
   </si>
 </sst>
 </file>
@@ -741,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z945"/>
+  <dimension ref="A1:Z950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -831,214 +903,283 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="24" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="5" t="s">
+    </row>
+    <row r="25" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
+      <c r="B25" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1936,6 +2077,11 @@
     <row r="943" ht="14.25" customHeight="1"/>
     <row r="944" ht="14.25" customHeight="1"/>
     <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3100,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3178,57 +3324,57 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>56</v>
+      <c r="A5" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B10" si="0">"VG_"&amp;A5</f>
-        <v>VG_SelectStatusOptionOnVis</v>
+        <f>"VG_"&amp;A5</f>
+        <v>VG_DelayBefore</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>VG_DelayBefore</v>
+        <f t="shared" ref="B6:B10" si="0">"VG_"&amp;A6</f>
+        <v>VG_DelayAfter</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>VG_DelayAfter</v>
+        <v>VG_TimeoutMedium</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>VG_TimeoutMedium</v>
+        <v>VG_TimeoutShort</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>VG_TimeoutShort</v>
+        <v>VG_NumberOfRetries</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>VG_NumberOfRetries</v>
+        <v>VG_TimeSpan</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -3249,10 +3395,10 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -3260,7 +3406,7 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -3268,33 +3414,54 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4257,7 +4424,6 @@
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9AA62-8306-4CE7-954E-A1C1FCFA47B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E9FD05-3932-4E2D-BD34-DDA4D8FCF0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -232,9 +232,6 @@
     <t>VG_OutlookFolderNameForInvoice</t>
   </si>
   <si>
-    <t>VG_UploadFlatFilePath</t>
-  </si>
-  <si>
     <t>UploadFlatFilePath</t>
   </si>
   <si>
@@ -437,6 +434,21 @@
   </si>
   <si>
     <t xml:space="preserve">Vangaurd : Outlook : Attachment not found </t>
+  </si>
+  <si>
+    <t>VG_FileWithoutItemDetailsPath</t>
+  </si>
+  <si>
+    <t>VISInvoiceDetailsPageNotAvailableException</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Invoice details page not available</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : Flat File withour item details is not available</t>
+  </si>
+  <si>
+    <t>FileNotAvailableException</t>
   </si>
 </sst>
 </file>
@@ -815,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z950"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -906,68 +918,68 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
         <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
         <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -987,7 +999,7 @@
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
@@ -995,190 +1007,204 @@
     </row>
     <row r="23" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
         <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
         <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
@@ -3246,10 +3272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3370,7 +3396,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -3395,10 +3421,10 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
         <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
@@ -3419,15 +3445,15 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
@@ -3435,18 +3461,18 @@
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>114</v>
+      <c r="A19" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
@@ -4423,9 +4449,9 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E9FD05-3932-4E2D-BD34-DDA4D8FCF0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1856C770-19AC-401A-8A53-6173606E1A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -449,6 +449,42 @@
   </si>
   <si>
     <t>FileNotAvailableException</t>
+  </si>
+  <si>
+    <t>StatusReportEmailSubject</t>
+  </si>
+  <si>
+    <t>Vangaurd : Process execution ended</t>
+  </si>
+  <si>
+    <t>StatusReportEmailBody</t>
+  </si>
+  <si>
+    <t>Vanguard : Process execution ended. Please find attached status report.</t>
+  </si>
+  <si>
+    <t>PrcoessExecuionStartSubject</t>
+  </si>
+  <si>
+    <t>ProcessExecutionEndBody</t>
+  </si>
+  <si>
+    <t>Vangaurd : Process execution started</t>
+  </si>
+  <si>
+    <t>Process execution started for Vanguard</t>
+  </si>
+  <si>
+    <t>ProcessFolderPath</t>
+  </si>
+  <si>
+    <t>VG_ProcessFolderPath</t>
+  </si>
+  <si>
+    <t>StatusReportName</t>
+  </si>
+  <si>
+    <t>VG_StatusReportName</t>
   </si>
 </sst>
 </file>
@@ -827,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1205,23 +1241,51 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -3274,14 +3338,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" customWidth="1"/>
     <col min="3" max="3" width="60.36328125" customWidth="1"/>
     <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
@@ -3475,8 +3539,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1856C770-19AC-401A-8A53-6173606E1A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE168303-39EA-4F9A-81C9-DB690F15A318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -485,6 +485,21 @@
   </si>
   <si>
     <t>VG_StatusReportName</t>
+  </si>
+  <si>
+    <t>DelayForOtpEmail</t>
+  </si>
+  <si>
+    <t>ProcessNotificationEmail</t>
+  </si>
+  <si>
+    <t>VG_ProcessNotificationEmail</t>
+  </si>
+  <si>
+    <t>VG_ProcessCCEmail</t>
+  </si>
+  <si>
+    <t>ProcessNotificationCCEmail</t>
   </si>
 </sst>
 </file>
@@ -863,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2184,7 +2199,7 @@
   <dimension ref="A1:Z980"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2365,7 +2380,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18">
+        <v>25000</v>
+      </c>
+    </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3338,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3555,8 +3577,22 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE168303-39EA-4F9A-81C9-DB690F15A318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62073A67-928F-4218-BFF3-6FE05C0F8667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z950"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3360,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62073A67-928F-4218-BFF3-6FE05C0F8667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82903430-84BC-487F-B564-B81FBE7931D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3360,8 +3360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82903430-84BC-487F-B564-B81FBE7931D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801900AA-9461-4823-8D35-33E4D91E8D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -500,6 +500,33 @@
   </si>
   <si>
     <t>ProcessNotificationCCEmail</t>
+  </si>
+  <si>
+    <t>ddMMMyyyy</t>
+  </si>
+  <si>
+    <t>OtpVerificationFailedException</t>
+  </si>
+  <si>
+    <t>Vanguard: VIS : OTP Verification failed</t>
+  </si>
+  <si>
+    <t>OtpSplitStringValue</t>
+  </si>
+  <si>
+    <t>Your OTP for VIS eSupply is</t>
+  </si>
+  <si>
+    <t>VG_WithItemDetailsFolder</t>
+  </si>
+  <si>
+    <t>VG_WithoutItemDetailsFolder</t>
+  </si>
+  <si>
+    <t>WithItemDetailsFolder</t>
+  </si>
+  <si>
+    <t>WithoutItemDetailsFolder</t>
   </si>
 </sst>
 </file>
@@ -876,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z950"/>
+  <dimension ref="A1:Z951"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1016,6 +1043,9 @@
       <c r="A13" t="s">
         <v>75</v>
       </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
@@ -1034,7 +1064,12 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="5"/>
@@ -1210,85 +1245,92 @@
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A50" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
         <v>142</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="55" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2187,6 +2229,7 @@
     <row r="948" ht="14.25" customHeight="1"/>
     <row r="949" ht="14.25" customHeight="1"/>
     <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3360,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3593,8 +3636,22 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801900AA-9461-4823-8D35-33E4D91E8D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B65D3-035B-4E5A-9B30-BF4A46EE00C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="164">
   <si>
     <t>Name</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>WithoutItemDetailsFolder</t>
+  </si>
+  <si>
+    <t>.pdf</t>
   </si>
 </sst>
 </file>
@@ -905,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z951"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1086,6 +1089,9 @@
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
@@ -3403,7 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B65D3-035B-4E5A-9B30-BF4A46EE00C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C705A7C6-B987-4919-8F48-7CC6BD8D24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3409,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/VanguardConfig.xlsx
+++ b/Data/VanguardConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603213\Documents\UiPath\Vangaurd\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C705A7C6-B987-4919-8F48-7CC6BD8D24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECEF569-E069-4AFC-B3D1-339A890D3763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -530,6 +530,12 @@
   </si>
   <si>
     <t>.pdf</t>
+  </si>
+  <si>
+    <t>DelayLong</t>
+  </si>
+  <si>
+    <t>TopEmail</t>
   </si>
 </sst>
 </file>
@@ -908,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z951"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2247,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2437,8 +2443,22 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3409,7 +3429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
